--- a/testing/examples_llama.xlsx
+++ b/testing/examples_llama.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliki\Desktop\wiki_chatbot_ncpeh_ehealthlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aliki\Desktop\wiki_chatbot_ncpeh_ehealthlab\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AFC137-E871-4828-82E6-D3F19F43F448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CAB83F-8E45-4ED9-865B-60872947FBA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E8585942-3168-4302-8051-D5360FE024DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="218">
   <si>
     <t>Question</t>
   </si>
@@ -642,9 +642,6 @@
   </si>
   <si>
     <t>The Patient Summary can contain the following patient clinical data: - Alerts and allergies; - Medical history (vaccination, past problems, surgical procedures before the last six months); - Current medical state (current problems, medical devices and implants, intake of medicines, treatment recommendations, surgical procedures within the last six months); - Social history; - Pregnancy history (if relevant); - Physical findings; - Diagnostic tests. It is not mandatory that all this information exists. This means that there might be situations when only part of the information is available. For instance when the information was not available in the systems; the information could not be translated into other languages; there is no known information for that patient; etc. Refer to the training provided by your national contact point for eHealth on how to read the information in the Patient Summary. If you have not received any training, please contact your national contact point for eHealth..</t>
-  </si>
-  <si>
-    <t>The Patient Summary can contain the following patient clinical data: - Alerts and allergies; - Medical history (vaccination, past problems, surgical procedures before the last six months); - Current medical state (current problems, medical devices and implants, intake of medicines, treatment recommendations, surgical procedures within the last six months); - Social history; - Pregnancy history (if relevant); - Physical findings; - Diagnostic tests. It is not mandatory that all this information exists. This means that there might be situations when only part of the information is available. For instance when the information was not available in the systems; the information could not be translated into other languages; there is no known information for that patient; etc. Refer to the training provided by your national contact point for eHealth on how to read the information in the Patient Summary. If you have not received any training, please contact your National eHealth Authority..</t>
   </si>
   <si>
     <t>The National eHealth Authority (NeHA) is responsible for the implementation of the Electronic Cross-Border Services in Cyprus</t>
@@ -702,7 +699,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1212,14 +1209,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40910604-F693-4C05-AD9C-0EF2B8D88086}">
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="31.2"/>
+  <sheetFormatPr defaultRowHeight="31.2" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="255.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="255.77734375" style="13" bestFit="1" customWidth="1"/>
@@ -1229,7 +1226,7 @@
     <col min="8" max="8" width="28.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1243,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1">
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1261,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1">
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -1276,7 +1273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1">
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
@@ -1291,11 +1288,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -1306,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="36.6">
+    <row r="6" spans="1:8" s="3" customFormat="1" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1324,7 +1321,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="36.6">
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1342,7 +1339,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" ht="36.6">
+    <row r="8" spans="1:8" s="3" customFormat="1" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
@@ -1360,7 +1357,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="36.6">
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
@@ -1378,7 +1375,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" ht="36.6">
+    <row r="10" spans="1:8" s="3" customFormat="1" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A10" s="11" t="s">
         <v>9</v>
       </c>
@@ -1396,7 +1393,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="3" customFormat="1">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1411,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1">
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A12" s="11" t="s">
         <v>11</v>
       </c>
@@ -1426,7 +1423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="3" customFormat="1">
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
@@ -1441,7 +1438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="3" customFormat="1">
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A14" s="11" t="s">
         <v>13</v>
       </c>
@@ -1456,7 +1453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="3" customFormat="1">
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A15" s="11" t="s">
         <v>14</v>
       </c>
@@ -1471,7 +1468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1">
+    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A16" s="11" t="s">
         <v>15</v>
       </c>
@@ -1486,7 +1483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="3" customFormat="1" ht="249.6">
+    <row r="17" spans="1:5" s="3" customFormat="1" ht="249.6" x14ac:dyDescent="0.6">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -1501,7 +1498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="3" customFormat="1">
+    <row r="18" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
@@ -1516,7 +1513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="3" customFormat="1">
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -1531,7 +1528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1">
+    <row r="20" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
@@ -1546,7 +1543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="3" customFormat="1">
+    <row r="21" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -1561,7 +1558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="3" customFormat="1">
+    <row r="22" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -1576,7 +1573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="3" customFormat="1">
+    <row r="23" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
@@ -1591,7 +1588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="3" customFormat="1">
+    <row r="24" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
@@ -1606,7 +1603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="3" customFormat="1">
+    <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
@@ -1621,7 +1618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="3" customFormat="1">
+    <row r="26" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
@@ -1636,7 +1633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="3" customFormat="1">
+    <row r="27" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
@@ -1651,7 +1648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="3" customFormat="1">
+    <row r="28" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
@@ -1666,7 +1663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="3" customFormat="1">
+    <row r="29" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
@@ -1681,7 +1678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="3" customFormat="1">
+    <row r="30" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
@@ -1696,7 +1693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="3" customFormat="1">
+    <row r="31" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
@@ -1711,7 +1708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="3" customFormat="1">
+    <row r="32" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
@@ -1726,7 +1723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="3" customFormat="1">
+    <row r="33" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
@@ -1741,11 +1738,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="3" customFormat="1">
+    <row r="34" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="17" t="s">
         <v>126</v>
       </c>
       <c r="C34" s="17" t="s">
@@ -1756,7 +1753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="3" customFormat="1">
+    <row r="35" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
@@ -1771,7 +1768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="3" customFormat="1">
+    <row r="36" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
@@ -1786,7 +1783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="3" customFormat="1">
+    <row r="37" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
@@ -1801,7 +1798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="3" customFormat="1">
+    <row r="38" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
@@ -1816,7 +1813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="3" customFormat="1">
+    <row r="39" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
@@ -1831,7 +1828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="3" customFormat="1">
+    <row r="40" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
@@ -1846,7 +1843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="3" customFormat="1">
+    <row r="41" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
@@ -1861,7 +1858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="3" customFormat="1">
+    <row r="42" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
@@ -1876,7 +1873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="3" customFormat="1">
+    <row r="43" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
@@ -1891,85 +1888,87 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="3" customFormat="1">
-      <c r="A44" s="4"/>
+    <row r="44" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A44" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="B44" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C44" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>201</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="3" customFormat="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A45" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>202</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="3" customFormat="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A46" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>203</v>
+        <v>45</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="3" customFormat="1">
+    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A47" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="3" customFormat="1">
+    <row r="48" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A48" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>138</v>
+        <v>47</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="3" customFormat="1">
+    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A49" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C49" s="19" t="s">
         <v>204</v>
@@ -1979,44 +1978,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="3" customFormat="1">
+    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A50" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="3" customFormat="1">
+    <row r="51" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A51" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="3" customFormat="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A52" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C52" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>206</v>
       </c>
       <c r="D52" s="13"/>
@@ -2024,14 +2023,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="3" customFormat="1">
+    <row r="53" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A53" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>207</v>
       </c>
       <c r="D53" s="13"/>
@@ -2039,178 +2038,178 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="3" customFormat="1">
+    <row r="54" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A54" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>208</v>
+        <v>53</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>205</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="3" customFormat="1">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A55" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="D55" s="13"/>
+        <v>73</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>144</v>
+      </c>
       <c r="E55" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A56" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>144</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D56" s="20"/>
       <c r="E56" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A57" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D57" s="20"/>
       <c r="E57" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>146</v>
+        <v>76</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>208</v>
       </c>
       <c r="D58" s="20"/>
       <c r="E58" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" s="21" t="s">
-        <v>147</v>
+        <v>77</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>148</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="D59" s="20"/>
       <c r="E59" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D60" s="20"/>
       <c r="E60" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>149</v>
+        <v>79</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>150</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="D61" s="20"/>
       <c r="E61" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>150</v>
+        <v>80</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>151</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B63" s="22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D63" s="20"/>
       <c r="E63" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B64" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>152</v>
+        <v>82</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>148</v>
       </c>
       <c r="D64" s="20"/>
       <c r="E64" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B65" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="22" t="s">
         <v>148</v>
       </c>
       <c r="D65" s="20"/>
@@ -2218,104 +2217,104 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>148</v>
+        <v>84</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D66" s="20"/>
       <c r="E66" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B67" s="22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D67" s="20"/>
       <c r="E67" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B68" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>154</v>
+        <v>86</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>153</v>
       </c>
       <c r="D68" s="20"/>
       <c r="E68" s="14">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>153</v>
+        <v>87</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="D69" s="20"/>
       <c r="E69" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D70" s="20"/>
       <c r="E70" s="14">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B71" s="22" t="s">
-        <v>156</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>156</v>
+        <v>89</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>209</v>
       </c>
       <c r="D71" s="20"/>
       <c r="E71" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C72" s="22" t="s">
         <v>210</v>
       </c>
       <c r="D72" s="20"/>
@@ -2323,14 +2322,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="C73" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="21" t="s">
         <v>211</v>
       </c>
       <c r="D73" s="20"/>
@@ -2338,12 +2337,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C74" s="21" t="s">
         <v>212</v>
@@ -2353,102 +2352,102 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>213</v>
+        <v>93</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>161</v>
       </c>
       <c r="D75" s="20"/>
       <c r="E75" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B76" s="22" t="s">
-        <v>161</v>
+        <v>94</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="D76" s="20"/>
       <c r="E76" s="14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>162</v>
+        <v>95</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>163</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>214</v>
+        <v>163</v>
       </c>
       <c r="D77" s="20"/>
       <c r="E77" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B78" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>163</v>
+        <v>96</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>214</v>
       </c>
       <c r="D78" s="20"/>
       <c r="E78" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>215</v>
+        <v>97</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>165</v>
       </c>
       <c r="D79" s="20"/>
       <c r="E79" s="14">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B80" s="22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D80" s="20"/>
       <c r="E80" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C81" s="22" t="s">
         <v>167</v>
@@ -2458,239 +2457,224 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="D82" s="20"/>
       <c r="E82" s="14">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B83" s="22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="D83" s="20"/>
       <c r="E83" s="14">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B84" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C84" s="22" t="s">
-        <v>169</v>
+        <v>102</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="21" t="s">
+        <v>216</v>
       </c>
       <c r="D84" s="20"/>
       <c r="E84" s="14">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B85" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="C85" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" s="22" t="s">
         <v>217</v>
       </c>
       <c r="D85" s="20"/>
-      <c r="E85" s="14">
+      <c r="E85" s="20">
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B86" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C86" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A86" s="4"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A138" s="4"/>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
